--- a/biology/Zoologie/Grapsoidea/Grapsoidea.xlsx
+++ b/biology/Zoologie/Grapsoidea/Grapsoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grapsoidea sont une super-famille de crabes. 
-Elle comprend près de 500 espèces actuelles dans sept familles[2]. Une partie sont des crabes terrestres, même s'ils ont besoin de la proximité de l'eau de mer pour certains de leurs besoins physiologiques. 
+Elle comprend près de 500 espèces actuelles dans sept familles. Une partie sont des crabes terrestres, même s'ils ont besoin de la proximité de l'eau de mer pour certains de leurs besoins physiologiques. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 décembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 décembre 2014) :
 famille Gecarcinidae MacLeay, 1838
 famille Glyptograpsidae Schubart, Cuesta &amp; Felder, 2002
 famille Grapsidae MacLeay, 1838
